--- a/Exc2/Проверочный лист для аудита ИБ task7.xlsx
+++ b/Exc2/Проверочный лист для аудита ИБ task7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\architecture-sprint-7\Exc2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8213F950-1AD9-40DD-8C1A-D392605F0277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E927E5-CE47-4397-9840-D59E278D34C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>№</t>
   </si>
@@ -128,25 +128,20 @@
     <t>4.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ИТОГ:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve">  У компании явные проблемы как с контролем за персональными данными пользователями, так и разделение прав раздельных пользователей. Нет систем мониторинга, не используется MFA
+    <t xml:space="preserve">ИТОГ:  У компании явные проблемы как с контролем за персональными данными пользователями, так и разделение прав раздельных пользователей. Нет систем мониторинга, не используется MFA
 </t>
-    </r>
+  </si>
+  <si>
+    <t>Эта категория была выбрана, потому что компания явно страдает от проблем с разграничением прав доступа. Сюда относится проблема с тем, когда партнёр из одной управляющей компании может увидеть или изменить данные клиентов и жилищных комплексов, которые относятся к другой компании.</t>
+  </si>
+  <si>
+    <t>Так как компания стремиться к выполнения правовых норм, а сейчас нет понимания, что все внешние API и сама компания удовелтворяет законодательным требованиям была выбрана эта категория</t>
+  </si>
+  <si>
+    <t>В компании не разработан план реагирования на инциденты, поэтому необходимо подстветить эту категорию в аудите</t>
+  </si>
+  <si>
+    <t>Эта категория показалась необходимой, чтобы подстветить проблему с сканирования на уязвимости</t>
   </si>
 </sst>
 </file>
@@ -166,20 +161,22 @@
       <name val="Liberation Sans"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +195,13 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -259,16 +261,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,30 +321,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
@@ -543,7 +565,7 @@
     <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="27" customHeight="1">
@@ -560,314 +582,323 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="30.75" customHeight="1">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:19" ht="106.5" customHeight="1">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="3:19" ht="83.45" customHeight="1">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="3:19" s="12" customFormat="1" ht="83.45" customHeight="1">
-      <c r="C6" s="9" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="3:19" s="8" customFormat="1" ht="83.45" customHeight="1">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="3:19" s="12" customFormat="1" ht="145.5" customHeight="1">
-      <c r="C7" s="9" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="3:19" s="8" customFormat="1" ht="145.5" customHeight="1">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" spans="3:19" ht="156" customHeight="1">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="3:19" ht="60.75" customHeight="1">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="3:19" ht="68.25" customHeight="1">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="3:19" s="2" customFormat="1" ht="138" customHeight="1">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="3:19" ht="88.5" customHeight="1">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="3:19" ht="48.75" customHeight="1">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="3:19" ht="77.25" customHeight="1">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="3:19" ht="69" customHeight="1">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="3:19" ht="54.75" customHeight="1">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="52.5" customHeight="1">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="7"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19" ht="82.5" customHeight="1">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="7"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" ht="90.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="3"/>
+      <c r="C19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:19" ht="78.75" customHeight="1">
-      <c r="A20" s="7"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="60.75" customHeight="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="84.75" customHeight="1"/>
   </sheetData>
